--- a/Linguagens de Programação/Teste de mesa.xlsx
+++ b/Linguagens de Programação/Teste de mesa.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5717BBB7-20BB-4EED-963D-D2A7D30C4DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F0D6D4-E8C6-384C-BB9E-4DADC5C67CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5865" xr2:uid="{6FD80203-9BBF-4827-8129-F30C67AEDF17}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>C</t>
   </si>
@@ -163,6 +174,111 @@
   </si>
   <si>
     <t>Aprovou</t>
+  </si>
+  <si>
+    <t>Atividade 11</t>
+  </si>
+  <si>
+    <t>Nasc.</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Pode V.</t>
+  </si>
+  <si>
+    <t>Atividade 12</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>Atividade 13</t>
+  </si>
+  <si>
+    <t>Cresc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Início </t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duração </t>
+  </si>
+  <si>
+    <t>Atividade 14</t>
+  </si>
+  <si>
+    <t>H.Trab</t>
+  </si>
+  <si>
+    <t>S.Hora</t>
+  </si>
+  <si>
+    <t>H.Regular</t>
+  </si>
+  <si>
+    <t>H.Extra</t>
+  </si>
+  <si>
+    <t>S.Base</t>
+  </si>
+  <si>
+    <t>S.Extra</t>
+  </si>
+  <si>
+    <t>Atividade 15</t>
+  </si>
+  <si>
+    <t>Atividade 16</t>
+  </si>
+  <si>
+    <t>Jan.</t>
+  </si>
+  <si>
+    <t>Fev.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média </t>
+  </si>
+  <si>
+    <t>18333.33</t>
+  </si>
+  <si>
+    <t>Atividade 17</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>MediaP1</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>MediaLP1</t>
   </si>
 </sst>
 </file>
@@ -206,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,19 +382,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,15 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,6 +474,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -634,44 +842,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6AECE4-E217-4E09-8822-67386A0A21CA}">
-  <dimension ref="B5:H48"/>
+  <dimension ref="B5:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.43359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,40 +896,40 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,48 +946,48 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>100</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,41 +1000,41 @@
       <c r="E16" s="1">
         <v>2200</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,41 +1051,41 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,31 +1104,31 @@
       <c r="G24" s="1">
         <v>10000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,27 +1138,27 @@
       <c r="D28" s="1">
         <v>100</v>
       </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,36 +1169,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,36 +1209,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,87 +1249,458 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>15</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F47" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
         <v>7</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>5</v>
       </c>
-      <c r="E47" s="1">
-        <v>6</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E48" s="1">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
         <v>5</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="6">
         <v>5</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="6">
         <v>5</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E53" s="1">
+        <v>20</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6">
+        <v>2009</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2024</v>
+      </c>
+      <c r="E54" s="6">
+        <v>15</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="17">
+        <v>85</v>
+      </c>
+      <c r="D58" s="17">
+        <v>20</v>
+      </c>
+      <c r="E58" s="17">
+        <v>85</v>
+      </c>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="17">
+        <v>85</v>
+      </c>
+      <c r="D62" s="17">
+        <v>20</v>
+      </c>
+      <c r="E62" s="17">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="17">
+        <v>22</v>
+      </c>
+      <c r="D66" s="17">
+        <v>3</v>
+      </c>
+      <c r="E66" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="17">
+        <v>180</v>
+      </c>
+      <c r="D70" s="17">
+        <v>20</v>
+      </c>
+      <c r="E70" s="17">
+        <v>160</v>
+      </c>
+      <c r="F70" s="17">
+        <v>20</v>
+      </c>
+      <c r="G70" s="17">
+        <v>3600</v>
+      </c>
+      <c r="H70" s="19">
+        <v>200</v>
+      </c>
+      <c r="I70" s="19">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="17">
+        <v>15000</v>
+      </c>
+      <c r="D74" s="17">
+        <v>23000</v>
+      </c>
+      <c r="E74" s="17">
+        <v>17000</v>
+      </c>
+      <c r="F74" s="17">
+        <v>55000</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="17">
+        <v>7</v>
+      </c>
+      <c r="D78" s="17">
+        <v>6</v>
+      </c>
+      <c r="E78" s="17">
+        <v>8</v>
+      </c>
+      <c r="F78" s="17">
+        <v>9</v>
+      </c>
+      <c r="G78" s="17">
+        <v>5</v>
+      </c>
+      <c r="H78" s="19">
+        <v>4</v>
+      </c>
+      <c r="I78" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="J78" s="24">
+        <v>0</v>
+      </c>
+      <c r="K78" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B64:E64"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
